--- a/biology/Botanique/Parisette_à_quatre_feuilles/Parisette_à_quatre_feuilles.xlsx
+++ b/biology/Botanique/Parisette_à_quatre_feuilles/Parisette_à_quatre_feuilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parisette_%C3%A0_quatre_feuilles</t>
+          <t>Parisette_à_quatre_feuilles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paris quadrifolia
 La Parisette à quatre feuilles (Paris quadrifolia) est une espèce de plante à fleurs de la famille des liliacées (selon la classification classique) ou des mélanthiacées (selon la classification APG). C'est une plante herbacée vivace. Ses populations, associés aux bois tempérés sont en grande partie clonales.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parisette_%C3%A0_quatre_feuilles</t>
+          <t>Parisette_à_quatre_feuilles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom viendrait du prince troyen Pâris qui aurait connu les vertus de cette plante[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom viendrait du prince troyen Pâris qui aurait connu les vertus de cette plante.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parisette_%C3%A0_quatre_feuilles</t>
+          <t>Parisette_à_quatre_feuilles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante herbacée vivace de 20 à 40 cm de hauteur est caractérisée par un verticille de 4 (parfois 5 ou 6) feuilles et une fleur solitaire.
 Le limbe est parcouru de 3 à 5 nervures à tracé pseudo-parallèle se rejoignant au sommet, mais, fait exceptionnel pour une monocotylédone, réunies par un réseau de nervures secondaires.
@@ -552,7 +568,7 @@
 Une fleur unique vert-jaunâtre se dresse sur le verticille qui deviendra un fruit unique.
 Le fruit est une capsule à l'aspect de baie, noire à maturité, contenant des graines charnues rouge vif.
 Les fruits sont toxiques.
-On observe parfois des individus « déréglés » aux formes variées (nombre de feuilles, d'étamines, pétales…)[2].
+On observe parfois des individus « déréglés » aux formes variées (nombre de feuilles, d'étamines, pétales…).
 </t>
         </is>
       </c>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parisette_%C3%A0_quatre_feuilles</t>
+          <t>Parisette_à_quatre_feuilles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +597,12 @@
           <t>Biologie des populations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses populations montrent de fortes différences locales dans leur taille et densité en pousses, le long d'un gradient environnemental des sols, d'humidité, de type de boisement (monospécifique ou non, etc) et de conditions de lumière[3].
-Leur structuration par l'environnement édaphique semble pouvoir être médiée par des différences de croissance clonale et de recrutement par semis issus de la reproduction sexuée[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses populations montrent de fortes différences locales dans leur taille et densité en pousses, le long d'un gradient environnemental des sols, d'humidité, de type de boisement (monospécifique ou non, etc) et de conditions de lumière.
+Leur structuration par l'environnement édaphique semble pouvoir être médiée par des différences de croissance clonale et de recrutement par semis issus de la reproduction sexuée.
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parisette_%C3%A0_quatre_feuilles</t>
+          <t>Parisette_à_quatre_feuilles</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Avril à juin
 </t>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parisette_%C3%A0_quatre_feuilles</t>
+          <t>Parisette_à_quatre_feuilles</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,10 +664,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante forestière de mi-ombre, des sous-bois frais sur sols calcaires jusqu'à 2 200 m d'altitude.
-La Parisette supporte le manque de lumière car les racines sont associées à un champignon-symbiote qui leur fournit des éléments nutritifs[4].
+La Parisette supporte le manque de lumière car les racines sont associées à un champignon-symbiote qui leur fournit des éléments nutritifs.
 </t>
         </is>
       </c>
@@ -658,7 +680,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parisette_%C3%A0_quatre_feuilles</t>
+          <t>Parisette_à_quatre_feuilles</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -676,7 +698,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce relativement commune en Europe (dans les habitats qui lui conviennent) sauf en Irlande et dans les parties les plus septentrionales du continent. En Grande-Bretagne elle est rare et on la trouve seulement dans l'est de l'île.
 </t>
@@ -689,7 +713,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parisette_%C3%A0_quatre_feuilles</t>
+          <t>Parisette_à_quatre_feuilles</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -707,17 +731,15 @@
           <t>État, pressions, menaces sur l'espèce, et réponses</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses capacités de dispersion sont limitées, car elle se reproduit principalement par rhizomes dont la croissance annuelle est de quelques centimètres par an.
-La vitesse de dispersion des graines est estimée de 20 à 30 cm par an, et elles ne sont pas persistantes[5].
+La vitesse de dispersion des graines est estimée de 20 à 30 cm par an, et elles ne sont pas persistantes.
 L'espèce semble pour ces raisons en régression ou a disparu d'une partie de son aire naturelle de répartition, peut-être à cause de la sylviculture moderne (coupes rases, drainages, sous-solage et labours avant plantations sylvicoles, désherbage, augmentation du nombre de layons, pistes et routes forestières. Paris quadrifolia est par exemple devenue plus rare dans le nord de la France alors que son habitat naturel y est abondant [réf. nécessaire].
 Adaptée aux sous-bois plutôt sombres et humides, elle ne supporte pas la mise en lumière brutale qu'imposent les coupes d'éclaircies trop importantes et plus encore les grandes coupes rases. Une gestion sylvicole plus douce, de type Prosilva, « par bouquet » ou « pied à pied » lui serait plus favorable [réf. nécessaire].
 La présence naturelle de populations de Paris quadrifolia est donc un indicateur de forêts anciennes et peu anthropisées. Dans les sous-bois calcaires lui convenant (station forestière), elle pourrait être un des indicateurs de gestion durable des forêts.
-Statuts de protection
-L'espèce n'est pas considérée comme étant menacée. En 2021 elle est classée Espèce de préoccupation mineure (LC) par l'UICN.
-Toutefois localement l'espèce peut se raréfier : elle est considérée Vulnérable (VU) en Poitou-Charentes ; en Danger (EN) en Bretagne.
-Elle est protégée dans plusieurs régions de France : Poitou-Charentes, Limousin, Pays-de-la-Loire, Centre.
 </t>
         </is>
       </c>
@@ -728,7 +750,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parisette_%C3%A0_quatre_feuilles</t>
+          <t>Parisette_à_quatre_feuilles</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -743,12 +765,20 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Génétique des populations</t>
+          <t>État, pressions, menaces sur l'espèce, et réponses</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elle intéresse les spécialistes, pour les aspects reproduction sexuée, diversité clonale et différenciation et diversité génétique, pour notamment mieux comprendre les capacités d'adaptation de cette espèce à la fragmentation croissante de ses habitats[3]Hans Jacquemyn, Rein Brys, Olivier Honnay, Martin Hermy, Isabel Roldans-Ruiz[6] ou leurs capacités de résistance à certaines espèces invasives.
+          <t>Statuts de protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas considérée comme étant menacée. En 2021 elle est classée Espèce de préoccupation mineure (LC) par l'UICN.
+Toutefois localement l'espèce peut se raréfier : elle est considérée Vulnérable (VU) en Poitou-Charentes ; en Danger (EN) en Bretagne.
+Elle est protégée dans plusieurs régions de France : Poitou-Charentes, Limousin, Pays-de-la-Loire, Centre.
 </t>
         </is>
       </c>
@@ -759,7 +789,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parisette_%C3%A0_quatre_feuilles</t>
+          <t>Parisette_à_quatre_feuilles</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -774,14 +804,49 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Génétique des populations</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle intéresse les spécialistes, pour les aspects reproduction sexuée, diversité clonale et différenciation et diversité génétique, pour notamment mieux comprendre les capacités d'adaptation de cette espèce à la fragmentation croissante de ses habitatsHans Jacquemyn, Rein Brys, Olivier Honnay, Martin Hermy, Isabel Roldans-Ruiz ou leurs capacités de résistance à certaines espèces invasives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Parisette_à_quatre_feuilles</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parisette_%C3%A0_quatre_feuilles</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Étude toxicologique</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux principes toxiques contenus dans le fruit sont connus. Ce sont la paridine et la parastyphnine.
 Ces substances ont chez l'Homme une action d'irritation des muqueuses.
-Deux à trois baies suffisent à provoquer des accidents ; elles étaient jadis mêlées à des appâts empoisonnés destinés à tuer les renards[7].
+Deux à trois baies suffisent à provoquer des accidents ; elles étaient jadis mêlées à des appâts empoisonnés destinés à tuer les renards.
 </t>
         </is>
       </c>
